--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/60_Muş_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/60_Muş_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B04CFC-B1E9-4EB1-8DF9-071B37B24DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959D4456-ED0A-468F-82EA-61BE2006EADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="676" xr2:uid="{D91F6092-4A4D-4750-8F66-BA1F90BE2049}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{4ABCEBB3-93D7-4131-AD8A-4B8155C5EE96}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1012,13 +1012,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{38D9DB80-3B6A-4774-88CA-0FC3A8B239A6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6DD6555C-F7C3-40FD-BA56-24C5DDE84EE3}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{37998A42-D7D1-4B8A-8696-15BCC72FDF8C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AE8CEB3D-9BBC-4C99-8C5B-F8D9ED07BC27}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A6D3A0D2-8436-49D0-A574-DF886A1B652F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5DE3FF90-F6F0-40BF-B688-128FA9334A15}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2AB27F0A-4086-46AF-8C7D-98777FE97927}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{97ED4A24-18AF-4A55-8291-DC4F5B53F76C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D0BD1424-3963-45AE-82CA-4F92AD7D54E5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{74A07F05-15DB-4907-8DD9-2EBAA7658C92}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D04C16C4-1AB3-491F-8AEA-73B6D7FDD6B7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DD6A1095-838D-482C-9BA9-2B7F5D9D42DA}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{AA6D768F-BA6F-4641-917A-D1DDA557439B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1BF528FE-0966-44CE-9ADD-E10B94AE853F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C167C85D-CDA8-4C0F-A840-677BA132BB93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D2D4BA-55EF-4BE3-8B1C-8FF849030F75}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2634,17 +2634,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6746DBBA-B9C3-4BFB-84D9-0DF44064A7AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8A840FA-D792-4762-B9E6-43E2D2ADB810}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DEBF51F9-E088-4A20-8220-1C7C39AEE2E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0B16308-9422-45F4-8227-C89637BFD945}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D33EC4C-A95F-418F-B633-2BF9B335AF1F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C414A422-8390-4990-8527-D5DC7A7B46A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED58C5E5-DD77-4FA8-AD37-3DD277BE7CA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE0C5C73-A8CB-4B62-B933-81170E976250}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F7EBB1D9-D08B-4D3F-BCC0-17D12DE135B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{62EC085D-A097-4AEE-8371-5569FF70B95B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0CB3D68-AEC7-4B56-B33E-A5B4FDE08375}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58A7FAEC-B0A0-43EC-A66E-050CD105DF9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA5269EF-3D7C-44C5-9855-8D123F226187}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B12C12B2-7933-4712-930F-1AC07144945C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FD241507-4C96-46A4-87F0-709FFB2F547E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A0840F4-A14A-401C-BD56-1C440489A000}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82DE97B9-F87B-44C8-A4D6-D5CA3E39F006}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D47129EC-E3EA-4584-B09A-F2749AAB0284}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E330AE8-8A14-48DC-891A-F824C370BCCE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DB47C51F-61D9-4CFD-8CB3-A53E7AEA52C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01E917D5-569D-411F-9683-84E35F9BD6E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D860E906-57AE-4FF0-B4A2-79BD69A7EF3C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC58CE9-46CE-45CC-8373-DC77A9AB3529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066EF319-9F68-4ADE-963A-1824816F43CB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3888,17 +3888,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0675EA99-2562-4D55-9D55-BA85E258BB73}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A9CDE03-E378-40BB-8A9C-7AFD77449841}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E40A8900-4173-4A38-8ED0-F219CDAF6D17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{069CF67F-4888-43C5-840A-6BC020CBA1C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD8FD2D3-BC6F-436A-83B9-C7D82F79ACDD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AFF72D0-5A44-4390-822D-7C09B4532299}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62D8524E-5FAF-4375-B531-D4BF50AF6F07}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D17A10A9-DCB6-4BCB-8A5E-BABDA079AFCE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58A22076-AA2D-4877-B18A-A94EC06AAFF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3E26E2A1-F40C-4C1C-8D5E-39B79321CA66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BEEE62D-EAF1-487C-AD8D-920700749FEA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89DD83D5-9D69-43D9-BC4B-70F0938E1001}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4B6A06D-AFFD-4D64-B0C8-4148D1DE054A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CF70FB2-BB89-4286-B8BE-3443ED14BD71}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12795111-A09A-418B-BBD5-F122FFF5B34F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADDFE2E4-FCDB-4A20-9E2D-DE43013CEE14}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF843578-1C72-4015-878A-7D5CDD666F0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E929AFF1-6876-4D72-A397-863804632DEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F45574F-8D84-4BC0-A99A-32F1F25F71F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A488EE7F-3607-4EBC-9C7F-30B03331D837}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{102A61C7-B48E-4DEA-BE09-D03C4D292103}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{208ED7F4-35D5-4577-B759-33B3DAB68667}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3911,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBB603C-5818-4EF0-A9A5-F67B084FD255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A6A8CA-73C0-4C78-A56F-EF32568CA603}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5132,17 +5132,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EA4100B-E4A2-4736-99E1-913B19EC5E2E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37AFE998-F976-4199-862A-505ABB8537DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{600A3E13-E5C1-40FA-8E1F-D40B8C86ACB5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EDED152C-3EED-4F01-A756-F56746E4680B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3760C11-6DAD-4ADE-9720-C4E8F54DFA53}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA033E8A-1663-4CE5-8880-C0847F48E12F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F017EE70-4E35-4165-AB98-2F3BA58BB1A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D1D9315-42F1-4E5C-8F10-8023467599F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C4D8B25B-DA01-4EE8-9D1E-459FFED8F077}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7986FBEE-4EC7-40C1-9728-1F14D3BB68F8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5103D2D5-E8E3-4B2D-A1BB-2B50A69B2496}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{529F023B-EC52-45B2-ABCC-98C79AD38B70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D962BDE4-93C5-4233-93AD-569EC88A02CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9EEDA059-94E6-4B78-98DA-E547ABACB900}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{944689E2-FD03-4D1A-BE1F-5EC0AB584C86}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84AFE785-EA6B-46AA-BA40-F6712956F535}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67B73F17-6F95-4414-8711-0FFFA154E65A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF61B896-22FE-48B4-89DD-502E0DF6F5B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E7CE8AA-FF47-4CEE-8CE5-C30EEC0F5DB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{658D709C-C2CE-41DD-81A5-AD7BF7145E4C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4DBEEE3F-8495-4A56-BA38-D41B69910078}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6DFC1B9C-4133-4295-8A14-EBC9487C7EA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5155,7 +5155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7AC7A8-9E6B-4E45-A143-6C037754C685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F78A592-E255-41E2-8229-559EB63C6813}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6376,17 +6376,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5CF7F7EA-E071-4356-9281-033E949B3BCC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D6630FC-FAB8-4D7E-BFC2-20F686BA765E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{73648138-0B01-4EED-8E9E-1E2951CD0A10}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C461B2F-06BD-4AEF-9ACB-D3FA60618D37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC45956C-F175-4AA4-9C37-8EED690BF15A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1F57617-9D04-44CD-96BA-037D097E81ED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E9086DC-A654-43C2-8505-07473CC6A6E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4106967B-D6CE-459F-95BD-9581A3F9EE77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD5DC517-082D-494E-AE18-525EA5AB4043}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7F8F65C3-74BC-46FB-BA8B-4CC229DA3E78}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C07859F-342A-4866-B035-60C61BA29A1F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7531AFE9-7815-439E-A97E-7B204D81570B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E59718E-07A3-4B70-9498-5BA9BA44B7CC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A80FA1B8-7C9A-4578-8E0F-E404DCD77CF1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D98B113-E7BE-483A-9F4D-B1562538A09F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1B8FC9F-5C93-4168-9DA8-0669FCA72FCD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0149699-27FA-4951-9855-FA1F930D76EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E4F8DDC-FCC5-46E0-8DA8-34B285B879CE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58C9B5BF-59BC-4381-A5D2-FA0C93877A15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C9C7AD08-B229-4E6D-B16D-97D94FF2D954}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7AC15DA5-756B-453C-8B52-2E3BDF636100}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0AF3720-A1DD-4C43-88A2-867E90F7F52F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6399,7 +6399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DC3B15-8719-4541-AF3D-AF855D9EEFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE68C8FE-032B-4C02-B9A8-D2AAFB6DA2DE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7640,17 +7640,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1526E344-B727-49D9-99B4-D5DB05D47947}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7735612-8DAA-4810-B0B8-031B880ADA4B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D38950D-0B91-4BC0-9490-EA362BCDA9AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E6B5A6F-E549-48F8-A087-00F9A0E94281}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B6ACC097-8D31-4F99-B162-4B55A2377F9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA377DDC-E426-4060-BEA0-8555CB843473}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E89A600-8792-4DE6-ABDD-6DE7D5F1F1A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F805CEEE-4392-4A43-80DE-3ECCE2EFDE30}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{76D1CAE4-885C-40BF-99B4-18D806A08A1D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4AA69D61-3B19-4309-8076-183E42975019}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63F70B33-6D37-46B4-805A-E3628DCD1172}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12C9A0F3-FD78-4950-87B8-CDF7201083CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAAB520C-4CE7-478B-A9C8-B566DF503C24}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A1DA48C9-C380-48AB-8317-28D8F675C885}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E21CC068-6350-4DF0-9BA1-8974F91C05E9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B9AACC7-DBAC-48FD-8040-252BB912DB52}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49123D0A-D889-43A8-B9A8-DB9EC78FED8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D59F926E-7E35-4F40-BF77-0FC9B8857260}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11910F66-DEAA-4603-A8E9-87EEC265B69C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BE3D5B44-9B24-474A-BE37-D0A58D0B08C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F4AC4AB9-5D5A-4C66-8653-F9DAC2543FED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F1385B1-E502-4EDE-B4A9-E2293A95EFF0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7663,7 +7663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F2FBCE-123D-4DD4-9F66-807E152F7708}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295088C-283C-413F-ADF8-878DB69FE877}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8904,17 +8904,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FAEEDC4-9124-425C-AD14-AC37B73BC84B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D471117-7804-48DE-A1CB-6435CFDA07EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{213B971D-CB1D-416D-BABF-AA33A28DFCD7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7187087F-08E9-49B8-9DA1-9BF332D15649}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DBD76107-B5BD-4625-8779-B9EB9A57BDC1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{118FACDC-0C36-4D65-81BE-874CC02ED93C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FD7D55C-B85E-4F7F-99F0-5FE98B1EC329}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1E3EFE1-0455-4EAF-AEFA-B8E308CF5084}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A0B01899-1765-421B-9930-1E382A8BD4F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E2C82086-65A3-4200-A3CA-4BD178389241}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0CB1CF48-86D4-4FAA-B862-C244BCCF5888}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{306095AA-D097-4EB6-8876-96E3A2C7A886}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2F23415-1DA1-480F-A1CD-1343661DE31B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BEA1D25-4D8A-4011-A0A6-833DF3E2CA5C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CDB60DB-B458-412F-85E7-59CD84D82C73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B59E0D4-434C-4A8A-8F6D-3C2C72343190}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C0F7594-0147-42DF-A4A9-5464E6BE4374}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB487CD4-E6A8-46B1-A759-DB139ECC2835}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE602740-1053-4495-BD58-BA480CFBA08D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{57B979F3-9601-434F-8883-8864FB3CEE3A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{976DBCBC-2050-46FE-BB1B-7C0A67D337E2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3F12E32-E6A4-498C-A062-168F07CCCAB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8927,7 +8927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE49F3C3-81C3-4D40-BB7C-6F0BC01C9AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D55CDBF-B1E4-4BA8-BE5D-80F62524C77F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10168,17 +10168,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2302CB27-8E9F-43C3-964B-A97B5C8664C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1C175A6-03A5-473A-BC6F-202BCE36D9EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{91224568-6790-4B64-B478-0987763F36EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BF214E0-8AB6-4CFB-A699-639C8DE28DCA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0396C781-039A-4707-921E-2344CF9B7D73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{278AD213-3E7B-431D-8F6F-19AFF3746190}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3B754D2-2492-49CE-B8B5-F5F9B2C52ECD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8208DEF-8501-4DCD-9922-6DD0D766A3D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B8243D73-C6D7-4C99-AC83-3459338866A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{53577332-7EAB-47C7-A133-6E7E0E859852}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BBE0D76-87D2-4ACD-B945-BF79B4E92174}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F06789E-5A1E-4897-AD61-0760A14373B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E029012-2F1D-49AA-92B5-89ADDB83A262}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2D237DF-0902-413A-A047-F944989BA70F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38AE8362-5A7E-4CEE-BD88-2EBA6F4C52A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{709A24D4-35E1-4B71-AA71-1D9EB6211DF8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA71EC83-BD76-44E5-91D8-D1FBAE512793}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B4E07ED-86A8-4505-AB38-C3C5F9D618A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9FFEC69-066A-4DF6-95AD-D94158193994}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ED309922-AF57-451D-9EC8-24E4D545F6A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BF2EE79C-4F16-469E-A4BA-171CFBE020F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11583B3C-F132-4F12-B8BE-FCBA42492DD9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10191,7 +10191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7292A624-F21E-4330-888D-A545A21FA51D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD545AE-EFA5-4769-B0A1-DA38D762175C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11432,17 +11432,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85DF91AA-D243-4B5E-9016-122896E079E6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8150FD78-ACC8-44A3-B6C4-A6253B8FC7A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67DF308B-2691-446B-98D5-69715CB46435}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A38B4D7A-57CC-4EB2-842D-C6FD54E26E1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23808ED7-70CC-420D-99A3-F98767DD2446}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{64F79CD2-787A-43D6-AD1A-7671823924FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2792A26-BE69-4C1C-8830-49E5DED959A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B0EA2A4-6382-496F-856E-C8F6FA8007C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{873CC066-CAB5-4CC5-8B6B-8AE090542F37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{97123CEF-1FF4-4292-8F4C-24E090E40BE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D59846BA-9E03-4870-B00D-CA796EA76936}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95FEE826-3DA3-4F00-AC6B-3BC1E9E8534F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2144CAC7-7BE0-45FD-A380-CB49FA6811D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F05BB13-1EAB-4E67-B88E-CEFBD0FC559E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55CC9CE8-978C-467F-B771-EE204315B025}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E89FC2D2-FB75-4D8F-B62A-E05108ECDD22}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B081267B-C039-48C9-B5CF-BADEEB01EFCB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32998B87-D57C-415D-BB92-5366FBCF2F6E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00994E1A-2518-4E62-A130-94309E30BA04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8D42FD55-E515-4C5C-90E3-571F65D60051}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3705FE76-3125-4B71-94FC-9D8D11D8E06E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41EB69A6-B661-4F69-93BC-74AF71BAAFD7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11455,7 +11455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5726D1-69FE-4528-A1E9-EC54F84AF6BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B9F522-43B9-49BF-8E43-F9BC854BDE80}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12696,17 +12696,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AE16AE2-BADF-4C29-919F-D7D2D922D50B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DE25F46-13B1-4890-A985-D58EA5D654BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{290B5740-2760-4E32-9FB2-306D4BE23662}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E0E479B-3520-495F-8A30-788F86D113B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06724125-DF25-474B-9ACA-AD39B3D592CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B459E487-3965-4CD8-A26A-381013DA114B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{611ACB26-EEDF-4112-8BD2-0166F8E72957}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC0E2219-A184-411A-82F6-9417F6EE9BE8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5254AC4E-E611-4811-8B15-79931ECC3346}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{84D6576D-B159-4471-95DD-56E9E9BD7E51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B171231A-6759-4C56-9F79-B618F2C8A273}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{443E1FB9-2DE7-457E-81FC-E533E7A61FB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1008BFBF-9984-404B-860F-77FD754853CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DFD3B41-2299-417C-99B0-A3789622DB12}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C9136C4E-A440-40AA-8451-48FD5B774538}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA687266-3570-425C-BA78-D3E169171104}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0E9988C-29CE-43F1-8B5B-68E074BDAE4C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA51E4EB-3E47-49D4-9B8A-AC7CD95E9DAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8D6B714-FE80-4F07-AD4C-726E400E5C42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4541B742-E92F-443D-A9BD-75F874798AC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{30B4178B-BCEA-460C-A51C-1718324E1236}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F08E22F3-C415-4D76-8313-FCEEE29013B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12719,7 +12719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2098047-07A3-4B1D-A674-C14C97F521E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E1E813-A8C5-4050-AB6C-C4A22A392449}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13960,17 +13960,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAB6C18E-A2E9-474E-8085-11A85E1FEC7F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8E70498-D239-46E4-8BB1-91B5A9CDD26B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A1DAA17-B3D3-406C-A161-B918360934AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05E9360F-1AAF-4AEC-BE19-54EC0793C096}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A076B67-6DDA-4CB8-9262-AC2D9CA8FC4C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E16B29A5-C8A9-4F97-97A8-455E4A82CEFA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D0DBFF4-EAEF-4152-9CB2-47B9ADF71E8E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E3A71D5-AEA7-4605-91BD-7A06A7E17FE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AF21953F-6173-444C-BF2F-69A16EF09E2F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C61D1B3D-180B-4C5F-8D60-C52557722D3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F02483C1-DF21-4D5A-BECC-E97E476F1273}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAB4CA5C-612C-4111-B488-775DCA680E2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5169D66-3118-4E1A-8873-330EAF9D4911}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE244667-2C54-424A-9FB1-326D1ED60FE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B698322-F76F-45F1-B593-84A6AC164833}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1AEFBC5-DCC7-4ADB-964F-124F23A15638}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79DE3200-570F-4ABB-88E4-4B90FDBCEB8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA5BD057-6ED0-4A63-B0BE-5035E9C11AF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09EA01BE-AA50-4070-B737-CF2C1AC34FC5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{338F362D-033D-4118-B3A0-DD7D7D0D33AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55C4DC05-4B8B-4CAB-9A03-FECA058B24A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4CCCE11-7356-4D8A-B45A-52341D05A1C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13983,7 +13983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F0A26F-F767-4A59-8628-DB3053DC511E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF4A3C-9B73-4994-AF2F-5D291ED09EB3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15214,17 +15214,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DA9C804-5AEA-46C3-AE0D-CB9DEA05C6AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5924BEAD-BBB9-4F48-91F8-AEAFF1239ACC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20659790-C090-4F6C-9FE4-D6DE1A8B4282}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{387A0BBF-9523-49A1-8B0B-E5B0BA1DCBBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD236AB1-E2F6-428B-905B-F5B5BEF7ADB8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{215C3B91-C732-48CE-B293-A217624EDA76}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D6AF8D4-0AFE-4127-ACE7-95380C2FA4DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05A861D6-B476-4074-9B58-EA17EA64AC42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0001F5EC-D6A2-41B7-BF26-F36AEE75B662}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E1E26EC4-578C-4530-BF5D-E437C72CCD31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{310868B2-9134-4397-B630-2D58BB3E60B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDEED708-AD67-4209-BC9E-3662947122F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8933C32-DC3B-41C2-BDE4-DF62B95ACA96}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A8A13226-9635-4577-9475-37DC252F5C1C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5893D8B9-4993-4607-8805-87C8A7E6EFA3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB63AEA8-78DC-4633-AAF0-E63BBB03BF9E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EBAAA3AF-5602-4D46-B12F-6AE9DA4B7A33}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{667AC73D-995E-43FA-8E89-5AEB188011B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9062066A-F653-4D4A-BCA3-B2152334CDB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5DED0C05-38B5-4117-98A8-95DEFEC15054}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8BFF11F8-E17B-4371-B19B-517341959A26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8ED380E0-562F-4363-A325-5873BB6D174C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15237,7 +15237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA7AAE8-00B8-4BE4-9D2B-7EFE6447D9F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C656DC0-30FA-49D3-A054-3A5DE8D60616}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16468,17 +16468,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3187926-DA50-4B9A-A248-3EE16166A073}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E9CD009-1B49-4A1F-B4C8-9B3E15FDA42F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E38F1997-6C75-4F53-8243-6D3D86163E66}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81A0A319-6D34-426A-A964-0074557489BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE9FD280-766A-490F-B177-8B60B53062D4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3643756-140F-4853-8293-78F1CE568675}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F42BB1C1-6900-493B-BBA7-650D51A7D677}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EB793B8-B17A-4234-AB60-C7010C0203FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C7FD3FEC-BF6B-4A30-B619-95C9F3DC3142}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2DA5DA19-A362-4902-8CFC-482D6C99709C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C644FE3-68E8-4368-9ECC-E3E3DBFE701B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47D836F4-0CB8-4DCA-A497-5ED6768C835B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{310CCBB3-7FEB-4AA5-9C66-3B49DE1E0293}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6655A3D-3EF2-4824-9A69-2067D1D84F93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C74FDC7-BE77-4606-A04C-D30754A1BBD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A7A34E4-79F0-44B3-AF49-87592322EB09}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F07B570-4556-45FB-805C-D18E6034438C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA0B7B5A-239E-4774-BE82-32A76AC01DAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCD8E221-A101-443D-8CA2-444209AC2568}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E9CE3118-4533-40B4-9830-F6CF0FA5E9A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BE58A0D4-39CB-4436-A026-46C407BA5C25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86AB16AD-7DE7-4F38-B5DE-584B527ABBD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
